--- a/register-pressure/register-pressure-mir/register pressure.xlsx
+++ b/register-pressure/register-pressure-mir/register pressure.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26409"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{243CFDFC-8E53-467B-9F59-88BE9F5F222A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E7F947-C868-4492-A0ED-F0AE78E50A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="arm" sheetId="1" r:id="rId1"/>
+    <sheet name="register pressure on arm" sheetId="1" r:id="rId1"/>
+    <sheet name="overall register spills on arm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,15 +29,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>max register pressure</t>
   </si>
   <si>
+    <t>cycle percentage of the heaviest register pressure</t>
+  </si>
+  <si>
     <t>hotspot register pressure</t>
   </si>
   <si>
-    <t>cycle percentage of the heaviest register pressure</t>
+    <t>hotspot block</t>
+  </si>
+  <si>
+    <t>hotspot source code</t>
+  </si>
+  <si>
+    <t>time consumption percentage</t>
+  </si>
+  <si>
+    <t>common set register spill overhead (unifico/init)</t>
   </si>
   <si>
     <t>init</t>
@@ -57,6 +70,15 @@
     <t>makea:%bb.8 for.end22     &lt;1%</t>
   </si>
   <si>
+    <t>conj_grad:%bb.12 for.body38</t>
+  </si>
+  <si>
+    <t>cg.c line 449 - line 451</t>
+  </si>
+  <si>
+    <t>conj_grad 93.20% / 93.13%</t>
+  </si>
+  <si>
     <t>ep</t>
   </si>
   <si>
@@ -75,6 +97,15 @@
     <t>rprj3:%bb.20 for.body92   &lt;1%</t>
   </si>
   <si>
+    <t>resid:%bb.8 for.body7</t>
+  </si>
+  <si>
+    <t>mg.c line 578 - line 601</t>
+  </si>
+  <si>
+    <t>resid 45.13% / 45.08%</t>
+  </si>
+  <si>
     <t>sp</t>
   </si>
   <si>
@@ -82,13 +113,94 @@
   </si>
   <si>
     <t>diffusion:%bb.19 for.end88  &lt;1%</t>
+  </si>
+  <si>
+    <t>laplacian:%bb.42 for.body144</t>
+  </si>
+  <si>
+    <t>diffuse.c line 191 - line 243</t>
+  </si>
+  <si>
+    <t>laplacian 51.65% / 51.56%</t>
+  </si>
+  <si>
+    <t>init cg</t>
+  </si>
+  <si>
+    <t>unifico cg</t>
+  </si>
+  <si>
+    <t>unifico/init</t>
+  </si>
+  <si>
+    <t>init mg</t>
+  </si>
+  <si>
+    <t>unifico mg</t>
+  </si>
+  <si>
+    <t>init ua</t>
+  </si>
+  <si>
+    <t>unifico ua</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>r5</t>
+  </si>
+  <si>
+    <t>r6</t>
+  </si>
+  <si>
+    <t>r7</t>
+  </si>
+  <si>
+    <t>r8</t>
+  </si>
+  <si>
+    <t>r16</t>
+  </si>
+  <si>
+    <t>r17</t>
+  </si>
+  <si>
+    <t>r18</t>
+  </si>
+  <si>
+    <t>r19</t>
+  </si>
+  <si>
+    <t>r20</t>
+  </si>
+  <si>
+    <t>r29</t>
+  </si>
+  <si>
+    <t>r30</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +208,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,8 +236,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -134,15 +272,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -160,6 +351,1048 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Max Register Pressure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>without Unifico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'register pressure on arm'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>bt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ft</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>is</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mg</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ua</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'register pressure on arm'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A35C-45DB-A3C4-CA3526E4797F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>with Unifico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'register pressure on arm'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>bt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ft</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>is</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mg</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ua</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'register pressure on arm'!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A35C-45DB-A3C4-CA3526E4797F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="782887368"/>
+        <c:axId val="803958360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="782887368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803958360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="803958360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782887368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2762250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{599E9C7F-B37F-B8D9-06C6-D925C6037B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,58 +1692,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
@@ -523,41 +1778,57 @@
         <v>1.5</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>18</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D11" si="0">C4/B4</f>
         <v>1.6363636363636365</v>
       </c>
-      <c r="E4" s="1">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1">
-        <v>7</v>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G4" s="1">
-        <f>F4/E4</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <f>H4/G4</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.0129933843974441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
@@ -570,13 +1841,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>
@@ -589,32 +1864,40 @@
         <v>1.125</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" s="10" customFormat="1">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="9">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="E7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>8</v>
@@ -627,89 +1910,584 @@
         <v>1.5</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>21</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>1.2352941176470589</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1">
         <v>13</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>13</v>
       </c>
-      <c r="G9" s="1">
-        <f>F9/E9</f>
+      <c r="I9" s="1">
+        <f>H9/G9</f>
         <v>1</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.0278673073698539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="8" customFormat="1">
+      <c r="A10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="E10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>14</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>25</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>1.7857142857142858</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1">
         <v>14</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>14</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
+      <c r="J11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.0180381404194898</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D57F6F0-5077-4066-8423-5C08F4F8E4B0}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>170</v>
+      </c>
+      <c r="E2">
+        <v>42</v>
+      </c>
+      <c r="F2" s="18">
+        <v>42</v>
+      </c>
+      <c r="H2" s="18">
+        <v>4906</v>
+      </c>
+      <c r="I2" s="18">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="18">
+        <v>87257546</v>
+      </c>
+      <c r="C3" s="18">
+        <v>84994358</v>
+      </c>
+      <c r="E3" s="18">
+        <v>14112674</v>
+      </c>
+      <c r="F3" s="18">
+        <v>73987214</v>
+      </c>
+      <c r="H3" s="18">
+        <v>330446009</v>
+      </c>
+      <c r="I3" s="18">
+        <v>362143904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2387461</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2588990</v>
+      </c>
+      <c r="E4" s="18">
+        <v>613835</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1448831</v>
+      </c>
+      <c r="H4" s="18">
+        <v>14999006</v>
+      </c>
+      <c r="I4" s="18">
+        <v>16054129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="18">
+        <v>31601068741</v>
+      </c>
+      <c r="C5" s="18">
+        <v>31578902317</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1216387999</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1286866179</v>
+      </c>
+      <c r="H5" s="18">
+        <v>9067109285</v>
+      </c>
+      <c r="I5" s="18">
+        <v>9056915252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="18">
+        <v>365087996539</v>
+      </c>
+      <c r="C6" s="18">
+        <v>364846988041</v>
+      </c>
+      <c r="E6" s="18">
+        <v>54901897932</v>
+      </c>
+      <c r="F6" s="18">
+        <v>55442672286</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1070875730729</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1068472702956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="18">
+        <v>14811534916</v>
+      </c>
+      <c r="C7" s="18">
+        <v>14811610326</v>
+      </c>
+      <c r="E7" s="18">
+        <v>22851803</v>
+      </c>
+      <c r="F7" s="18">
+        <v>26991861</v>
+      </c>
+      <c r="H7" s="18">
+        <v>192889329</v>
+      </c>
+      <c r="I7" s="18">
+        <v>189350166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="18">
+        <v>332827151748</v>
+      </c>
+      <c r="C8" s="18">
+        <v>332626443339</v>
+      </c>
+      <c r="E8" s="18">
+        <v>46698813022</v>
+      </c>
+      <c r="F8" s="18">
+        <v>47256647894</v>
+      </c>
+      <c r="H8" s="18">
+        <v>814060973330</v>
+      </c>
+      <c r="I8" s="18">
+        <v>808011816234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="18">
+        <v>60731595349</v>
+      </c>
+      <c r="C9" s="18">
+        <v>60751124438</v>
+      </c>
+      <c r="E9" s="18">
+        <v>9407255235</v>
+      </c>
+      <c r="F9" s="18">
+        <v>8886368397</v>
+      </c>
+      <c r="H9" s="18">
+        <v>226845018599</v>
+      </c>
+      <c r="I9" s="18">
+        <v>228738087189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="18">
+        <v>640285827826</v>
+      </c>
+      <c r="C10" s="18">
+        <v>640247674208</v>
+      </c>
+      <c r="E10" s="18">
+        <v>146792367535</v>
+      </c>
+      <c r="F10" s="18">
+        <v>152900039268</v>
+      </c>
+      <c r="H10" s="18">
+        <v>2597023466804</v>
+      </c>
+      <c r="I10" s="18">
+        <v>2691275593138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="18">
+        <v>41278428182</v>
+      </c>
+      <c r="C11" s="18">
+        <v>52682232239</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1897360309</v>
+      </c>
+      <c r="F11" s="18">
+        <v>2255582631</v>
+      </c>
+      <c r="H11" s="18">
+        <v>16654997227</v>
+      </c>
+      <c r="I11" s="18">
+        <v>15412464753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="18">
+        <v>30212546155</v>
+      </c>
+      <c r="C12" s="18">
+        <v>40140057562</v>
+      </c>
+      <c r="E12" s="18">
+        <v>563266237</v>
+      </c>
+      <c r="F12" s="18">
+        <v>715443300</v>
+      </c>
+      <c r="H12" s="18">
+        <v>5134117641</v>
+      </c>
+      <c r="I12" s="18">
+        <v>4477828518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="18">
+        <v>47400021703</v>
+      </c>
+      <c r="C13" s="18">
+        <v>47453313925</v>
+      </c>
+      <c r="E13" s="18">
+        <v>948723876</v>
+      </c>
+      <c r="F13" s="18">
+        <v>949297897</v>
+      </c>
+      <c r="H13" s="18">
+        <v>8886791408</v>
+      </c>
+      <c r="I13" s="18">
+        <v>8895531359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="18">
+        <v>47399444023</v>
+      </c>
+      <c r="C14" s="18">
+        <v>47441517234</v>
+      </c>
+      <c r="E14" s="18">
+        <v>947760545</v>
+      </c>
+      <c r="F14" s="18">
+        <v>948542681</v>
+      </c>
+      <c r="H14" s="18">
+        <v>8901584122</v>
+      </c>
+      <c r="I14" s="18">
+        <v>8903843322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="18">
+        <v>5924505</v>
+      </c>
+      <c r="C15" s="18">
+        <v>5504451</v>
+      </c>
+      <c r="E15" s="18">
+        <v>7077287</v>
+      </c>
+      <c r="F15" s="18">
+        <v>14135223</v>
+      </c>
+      <c r="H15" s="18">
+        <v>3774248</v>
+      </c>
+      <c r="I15" s="18">
+        <v>3992408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="18">
+        <v>2923097</v>
+      </c>
+      <c r="C17" s="18">
+        <v>3037002</v>
+      </c>
+      <c r="E17" s="18">
+        <v>614942</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1860687</v>
+      </c>
+      <c r="H17" s="18">
+        <v>17328024</v>
+      </c>
+      <c r="I17" s="18">
+        <v>18544039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="16">
+        <f>SUM(B2:B17)</f>
+        <v>1611734107791</v>
+      </c>
+      <c r="C19" s="16">
+        <f>SUM(C2:C17)</f>
+        <v>1632675988600</v>
+      </c>
+      <c r="D19">
+        <f>C19/B19</f>
+        <v>1.0129933843974441</v>
+      </c>
+      <c r="E19" s="16">
+        <f>SUM(E2:E17)</f>
+        <v>263419103273</v>
+      </c>
+      <c r="F19" s="16">
+        <f>SUM(F2:F17)</f>
+        <v>270759884391</v>
+      </c>
+      <c r="G19">
+        <f>F19/E19</f>
+        <v>1.0278673073698539</v>
+      </c>
+      <c r="H19" s="16">
+        <f>SUM(H2:H17)</f>
+        <v>4758009230667</v>
+      </c>
+      <c r="I19" s="16">
+        <f>SUM(I2:I17)</f>
+        <v>4843834869287</v>
+      </c>
+      <c r="J19">
+        <f>I19/H19</f>
+        <v>1.0180381404194898</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>